--- a/biology/Médecine/1594_en_santé_et_médecine/1594_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1594_en_santé_et_médecine/1594_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1594_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1594_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1594 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1594_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1594_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7 juin : « Le docteur Rodrigo Lopez [est] pendu et écartelé sous prétexte qu’il aurait tenté de tuer la reine Élisabeth d’Angleterre[1]. »
-Remise en état du théâtre anatomique de Padoue,  premier connu des édifices permanents de ce genre, édifié en 1584, mais « si rapidement détérioré qu'il fallut le reconstruire en 1594[2] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>7 juin : « Le docteur Rodrigo Lopez [est] pendu et écartelé sous prétexte qu’il aurait tenté de tuer la reine Élisabeth d’Angleterre. »
+Remise en état du théâtre anatomique de Padoue,  premier connu des édifices permanents de ce genre, édifié en 1584, mais « si rapidement détérioré qu'il fallut le reconstruire en 1594 ».</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1594_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1594_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le naturaliste et médecin italien Baldo Angelo Abati publie son Opus discussarum concertationum praeclarum[3].
-André du Laurens publie son Discours des maladies mélancoliques[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le naturaliste et médecin italien Baldo Angelo Abati publie son Opus discussarum concertationum praeclarum.
+André du Laurens publie son Discours des maladies mélancoliques.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1594_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1594_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Antoine Vallot (mort en 1671), Premier médecin de Louis XIV et surintendant du Jardin du roi[5].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Antoine Vallot (mort en 1671), Premier médecin de Louis XIV et surintendant du Jardin du roi.</t>
         </is>
       </c>
     </row>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1594_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1594_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,11 +621,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Manase Dosan (en) (né en 1507), médecin japonais, élève de Tashiro Sanki (en), auteur du Keitekishu, « le manuel le plus estimé de son temps », et fondateur d'une école de médecine[6].
-1592 ou 1594 : Cristobal Acosta (né à une date inconnue), naturaliste et médecin portugais[7].
-1593 ou 1594 : Étienne Gourmelen (né à une date inconnue), chirurgien français, professeur au Collège royal[8],[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manase Dosan (en) (né en 1507), médecin japonais, élève de Tashiro Sanki (en), auteur du Keitekishu, « le manuel le plus estimé de son temps », et fondateur d'une école de médecine.
+1592 ou 1594 : Cristobal Acosta (né à une date inconnue), naturaliste et médecin portugais.
+1593 ou 1594 : Étienne Gourmelen (né à une date inconnue), chirurgien français, professeur au Collège royal,.
 </t>
         </is>
       </c>
